--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r106_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2366,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2413,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2459,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2684,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2719,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2777,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3377,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3424,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3470,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3579,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3614,28 +3626,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3672,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3781,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3816,28 +3828,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3874,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4202,10 +4214,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4249,28 +4261,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4295,28 +4307,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4404,10 +4416,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4451,28 +4463,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4497,28 +4509,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4606,10 +4618,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4653,28 +4665,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4699,28 +4711,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5109,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5156,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5202,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5282,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5317,28 +5329,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5375,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6020,10 +6032,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6067,28 +6079,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6113,28 +6125,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6424,10 +6436,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6471,28 +6483,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6517,28 +6529,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7030,10 +7042,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7077,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7123,28 +7135,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7244,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7279,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7337,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7405,10 +7417,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7452,28 +7464,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7498,28 +7510,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7706,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7741,28 +7753,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7799,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7867,10 +7879,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7914,28 +7926,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7960,28 +7972,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8098,10 +8110,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8145,28 +8157,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8191,28 +8203,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8271,10 +8283,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8318,28 +8330,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8364,28 +8376,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8456,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8491,28 +8503,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8549,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
